--- a/data/pca/factorExposure/factorExposure_2019-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1238520316694561</v>
+        <v>0.07631982209128919</v>
       </c>
       <c r="C2">
-        <v>-0.0051513375317897</v>
+        <v>0.03400115547107851</v>
       </c>
       <c r="D2">
-        <v>-0.05123181985973334</v>
+        <v>0.01437017510503706</v>
       </c>
       <c r="E2">
-        <v>0.1135481078793516</v>
+        <v>-0.03959210337784689</v>
       </c>
       <c r="F2">
-        <v>0.1173781403823141</v>
+        <v>0.1415437710918764</v>
       </c>
       <c r="G2">
-        <v>0.02034338779348679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1045742509413965</v>
+      </c>
+      <c r="H2">
+        <v>0.06082467685165746</v>
+      </c>
+      <c r="I2">
+        <v>0.02948772907707989</v>
+      </c>
+      <c r="J2">
+        <v>-0.06775505389026584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2257412776547684</v>
+        <v>0.1695306833648333</v>
       </c>
       <c r="C3">
-        <v>-0.1278938725938041</v>
+        <v>0.09365828482498791</v>
       </c>
       <c r="D3">
-        <v>0.04114280056668295</v>
+        <v>-0.03100039396893913</v>
       </c>
       <c r="E3">
-        <v>0.3261160854344009</v>
+        <v>0.009920230644876304</v>
       </c>
       <c r="F3">
-        <v>0.04570239739215793</v>
+        <v>0.3719499376797905</v>
       </c>
       <c r="G3">
-        <v>0.1248638520472028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09171277533295563</v>
+      </c>
+      <c r="H3">
+        <v>0.2841430948419492</v>
+      </c>
+      <c r="I3">
+        <v>0.1808133762888958</v>
+      </c>
+      <c r="J3">
+        <v>-0.2421450438477504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09627193138707903</v>
+        <v>0.07457635598981437</v>
       </c>
       <c r="C4">
-        <v>-0.03893383667989057</v>
+        <v>0.03706879531245241</v>
       </c>
       <c r="D4">
-        <v>-0.02548798675814622</v>
+        <v>-0.02515618889981627</v>
       </c>
       <c r="E4">
-        <v>0.06973256900979206</v>
+        <v>-0.03686869239479653</v>
       </c>
       <c r="F4">
-        <v>0.04008909588232984</v>
+        <v>0.08172196856227232</v>
       </c>
       <c r="G4">
-        <v>0.02600451723474273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04639201027288482</v>
+      </c>
+      <c r="H4">
+        <v>0.02380487980040602</v>
+      </c>
+      <c r="I4">
+        <v>0.03145385075606871</v>
+      </c>
+      <c r="J4">
+        <v>-0.05880828523596082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01735843054688983</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.00932854852742356</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009316557443520182</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005766798273665734</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003922112112649677</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02108637013654379</v>
+      </c>
+      <c r="H6">
+        <v>-0.001437830015450696</v>
+      </c>
+      <c r="I6">
+        <v>-0.0133912099916067</v>
+      </c>
+      <c r="J6">
+        <v>-0.001163710016687685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04511853684071963</v>
+        <v>0.03514168982689436</v>
       </c>
       <c r="C7">
-        <v>-0.01193861456068229</v>
+        <v>0.006124307717059626</v>
       </c>
       <c r="D7">
-        <v>-0.03554664478226637</v>
+        <v>-0.03958493445334308</v>
       </c>
       <c r="E7">
-        <v>0.07605281085917352</v>
+        <v>-0.02911803595916365</v>
       </c>
       <c r="F7">
-        <v>-0.05258028358237383</v>
+        <v>0.05519866741030059</v>
       </c>
       <c r="G7">
-        <v>-0.00705383679018752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.007496099133421497</v>
+      </c>
+      <c r="H7">
+        <v>0.04544446558162494</v>
+      </c>
+      <c r="I7">
+        <v>0.0002504598416644006</v>
+      </c>
+      <c r="J7">
+        <v>-0.05617937338251733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04629433218243583</v>
+        <v>0.03070063337670782</v>
       </c>
       <c r="C8">
-        <v>-0.05037063590448018</v>
+        <v>0.04325831173179014</v>
       </c>
       <c r="D8">
-        <v>-0.00396047403811523</v>
+        <v>-0.02733605646496025</v>
       </c>
       <c r="E8">
-        <v>0.07054774293157405</v>
+        <v>-0.01766259725230441</v>
       </c>
       <c r="F8">
-        <v>0.01065576036587418</v>
+        <v>0.07245463117749074</v>
       </c>
       <c r="G8">
-        <v>0.01555701096497015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0212459646865194</v>
+      </c>
+      <c r="H8">
+        <v>0.04506843675628487</v>
+      </c>
+      <c r="I8">
+        <v>0.03443043323194413</v>
+      </c>
+      <c r="J8">
+        <v>-0.06184486108320886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08538232710265335</v>
+        <v>0.06143953552742872</v>
       </c>
       <c r="C9">
-        <v>-0.03722171505674051</v>
+        <v>0.03359858038193655</v>
       </c>
       <c r="D9">
-        <v>-0.03382399887431808</v>
+        <v>-0.02930382607011003</v>
       </c>
       <c r="E9">
-        <v>0.05707775297760889</v>
+        <v>-0.0326098247511904</v>
       </c>
       <c r="F9">
-        <v>0.0265852749273117</v>
+        <v>0.08253002814676483</v>
       </c>
       <c r="G9">
-        <v>0.04403771047367523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0427823900079855</v>
+      </c>
+      <c r="H9">
+        <v>0.02147759627608065</v>
+      </c>
+      <c r="I9">
+        <v>0.01368976102097565</v>
+      </c>
+      <c r="J9">
+        <v>-0.03700459622949543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01518930191126664</v>
+        <v>0.02599289090031854</v>
       </c>
       <c r="C10">
-        <v>0.1624342778701251</v>
+        <v>-0.1452653522540113</v>
       </c>
       <c r="D10">
-        <v>0.02636136775562368</v>
+        <v>0.05727618618293545</v>
       </c>
       <c r="E10">
-        <v>0.06931047084622005</v>
+        <v>0.02616968316022822</v>
       </c>
       <c r="F10">
-        <v>0.01822484720116494</v>
+        <v>0.06701608028919313</v>
       </c>
       <c r="G10">
-        <v>-0.02207078161978471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02126312425595406</v>
+      </c>
+      <c r="H10">
+        <v>0.0003649324226448008</v>
+      </c>
+      <c r="I10">
+        <v>0.1086887235788068</v>
+      </c>
+      <c r="J10">
+        <v>0.003833201173700135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.06003859757889982</v>
+        <v>0.05040003553267054</v>
       </c>
       <c r="C11">
-        <v>-0.01188213592172804</v>
+        <v>0.02795600871534606</v>
       </c>
       <c r="D11">
-        <v>0.006063242516385349</v>
+        <v>-0.001051753984281362</v>
       </c>
       <c r="E11">
-        <v>0.04180523369753282</v>
+        <v>-0.008220258303445154</v>
       </c>
       <c r="F11">
-        <v>0.006170806275790424</v>
+        <v>0.04036517875741594</v>
       </c>
       <c r="G11">
-        <v>-0.02181402152242789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006769647043127665</v>
+      </c>
+      <c r="H11">
+        <v>0.001184793560836284</v>
+      </c>
+      <c r="I11">
+        <v>-0.01041372111210956</v>
+      </c>
+      <c r="J11">
+        <v>-0.04522401200403254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04594861277639924</v>
+        <v>0.04745923065286085</v>
       </c>
       <c r="C12">
-        <v>-0.01706313326064287</v>
+        <v>0.02164658667690982</v>
       </c>
       <c r="D12">
-        <v>0.002682782037662376</v>
+        <v>-0.01057976353877771</v>
       </c>
       <c r="E12">
-        <v>0.03123455409296767</v>
+        <v>-0.01102178333660578</v>
       </c>
       <c r="F12">
-        <v>-0.005603971935187921</v>
+        <v>0.01574366607312118</v>
       </c>
       <c r="G12">
-        <v>0.001948036366596261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002353718029371352</v>
+      </c>
+      <c r="H12">
+        <v>0.003843650410684792</v>
+      </c>
+      <c r="I12">
+        <v>-0.006289770851617828</v>
+      </c>
+      <c r="J12">
+        <v>-0.03120463757101624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06683312209436577</v>
+        <v>0.04243437549444173</v>
       </c>
       <c r="C13">
-        <v>-0.02326610574340448</v>
+        <v>0.0293905205273117</v>
       </c>
       <c r="D13">
-        <v>0.0076021104669854</v>
+        <v>0.00702884484593366</v>
       </c>
       <c r="E13">
-        <v>0.1087717910762045</v>
+        <v>-0.008238558294228695</v>
       </c>
       <c r="F13">
-        <v>0.0200372552530829</v>
+        <v>0.1063662815265037</v>
       </c>
       <c r="G13">
-        <v>-0.001572426650586963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02109613685553758</v>
+      </c>
+      <c r="H13">
+        <v>0.04651132139341998</v>
+      </c>
+      <c r="I13">
+        <v>0.006091390727259426</v>
+      </c>
+      <c r="J13">
+        <v>-0.05776149591780486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03609974455087047</v>
+        <v>0.02819069985825871</v>
       </c>
       <c r="C14">
-        <v>-0.01734913860925474</v>
+        <v>0.01669414566390652</v>
       </c>
       <c r="D14">
-        <v>-0.02626918107638792</v>
+        <v>-0.01060990934879299</v>
       </c>
       <c r="E14">
-        <v>0.02843796275755545</v>
+        <v>-0.02504342848545858</v>
       </c>
       <c r="F14">
-        <v>0.009771432303773718</v>
+        <v>0.04134465896334436</v>
       </c>
       <c r="G14">
-        <v>-0.03321414626270293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02826715373900773</v>
+      </c>
+      <c r="H14">
+        <v>0.05079863003665092</v>
+      </c>
+      <c r="I14">
+        <v>0.008898149614237813</v>
+      </c>
+      <c r="J14">
+        <v>-0.01497750053562935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04835484402520244</v>
+        <v>0.04458648996247514</v>
       </c>
       <c r="C16">
-        <v>-0.02720492488107456</v>
+        <v>0.03356903462787196</v>
       </c>
       <c r="D16">
-        <v>0.0102973137665908</v>
+        <v>-0.009296604520238914</v>
       </c>
       <c r="E16">
-        <v>0.03447010918781466</v>
+        <v>-0.004924136784475975</v>
       </c>
       <c r="F16">
-        <v>-0.006975324978312695</v>
+        <v>0.03413948746672743</v>
       </c>
       <c r="G16">
-        <v>-0.0083818003238996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005510251093460648</v>
+      </c>
+      <c r="H16">
+        <v>0.008408521334328302</v>
+      </c>
+      <c r="I16">
+        <v>-0.008625627350218247</v>
+      </c>
+      <c r="J16">
+        <v>-0.03838411658204741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05543752763741813</v>
+        <v>0.04845682780884086</v>
       </c>
       <c r="C19">
-        <v>-0.03507148197160538</v>
+        <v>0.04081488566566432</v>
       </c>
       <c r="D19">
-        <v>0.005458105528716887</v>
+        <v>-0.01127635478100145</v>
       </c>
       <c r="E19">
-        <v>0.07609224977737029</v>
+        <v>-0.01762336241157313</v>
       </c>
       <c r="F19">
-        <v>-0.01716484840719512</v>
+        <v>0.08031706994909893</v>
       </c>
       <c r="G19">
-        <v>-0.02289882627939994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.009395743638030675</v>
+      </c>
+      <c r="H19">
+        <v>0.08198044107217549</v>
+      </c>
+      <c r="I19">
+        <v>0.03414934488485675</v>
+      </c>
+      <c r="J19">
+        <v>-0.05001701023402564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03912074483733311</v>
+        <v>0.01901252525657388</v>
       </c>
       <c r="C20">
-        <v>-0.04006482888107742</v>
+        <v>0.02766021918013654</v>
       </c>
       <c r="D20">
-        <v>-0.01247410237909073</v>
+        <v>-0.01618412580598082</v>
       </c>
       <c r="E20">
-        <v>0.06639337040672291</v>
+        <v>-0.01851975096148069</v>
       </c>
       <c r="F20">
-        <v>-0.009712811584993947</v>
+        <v>0.06747279583343388</v>
       </c>
       <c r="G20">
-        <v>-0.01204068810261016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01364748208656304</v>
+      </c>
+      <c r="H20">
+        <v>0.06871171792064103</v>
+      </c>
+      <c r="I20">
+        <v>0.02004718782351799</v>
+      </c>
+      <c r="J20">
+        <v>-0.07908556306024557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04307684495484506</v>
+        <v>0.02606487830891418</v>
       </c>
       <c r="C21">
-        <v>-0.03330871787970057</v>
+        <v>0.02705335918272101</v>
       </c>
       <c r="D21">
-        <v>-0.00605595405237263</v>
+        <v>-0.02356358519314871</v>
       </c>
       <c r="E21">
-        <v>0.09368384377181199</v>
+        <v>-0.00751063193426318</v>
       </c>
       <c r="F21">
-        <v>0.05166478215968998</v>
+        <v>0.07847961616971542</v>
       </c>
       <c r="G21">
-        <v>-0.02270035548448348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03498195510484106</v>
+      </c>
+      <c r="H21">
+        <v>0.02370508511847607</v>
+      </c>
+      <c r="I21">
+        <v>-0.01268338704891118</v>
+      </c>
+      <c r="J21">
+        <v>-0.02730731266512752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05238760608880978</v>
+        <v>0.04381088172180558</v>
       </c>
       <c r="C24">
-        <v>-0.01878970425071717</v>
+        <v>0.02198693797846275</v>
       </c>
       <c r="D24">
-        <v>0.002351750357862848</v>
+        <v>-0.005289543070857174</v>
       </c>
       <c r="E24">
-        <v>0.04619926844639623</v>
+        <v>-0.009983091696979722</v>
       </c>
       <c r="F24">
-        <v>-0.005071294995381429</v>
+        <v>0.04119368174432731</v>
       </c>
       <c r="G24">
-        <v>0.0001441238656692548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004665216468365143</v>
+      </c>
+      <c r="H24">
+        <v>0.007959615516225651</v>
+      </c>
+      <c r="I24">
+        <v>-0.006176855247566554</v>
+      </c>
+      <c r="J24">
+        <v>-0.04421550427280869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05323420486960867</v>
+        <v>0.0465002298485415</v>
       </c>
       <c r="C25">
-        <v>-0.008722445970537156</v>
+        <v>0.02120872548573877</v>
       </c>
       <c r="D25">
-        <v>0.003191545298901235</v>
+        <v>-0.003782261371065793</v>
       </c>
       <c r="E25">
-        <v>0.04012445477077891</v>
+        <v>-0.00840032982759795</v>
       </c>
       <c r="F25">
-        <v>0.007064687346178366</v>
+        <v>0.0443173950136373</v>
       </c>
       <c r="G25">
-        <v>-0.008823695975123778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004379264094853966</v>
+      </c>
+      <c r="H25">
+        <v>-0.0005074001747026495</v>
+      </c>
+      <c r="I25">
+        <v>-0.0118729684286697</v>
+      </c>
+      <c r="J25">
+        <v>-0.03775305545339209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0193391472471457</v>
+        <v>0.0159479004601741</v>
       </c>
       <c r="C26">
-        <v>-0.02726358460067978</v>
+        <v>0.02425612620999677</v>
       </c>
       <c r="D26">
-        <v>-0.001763798629835774</v>
+        <v>-0.00339227016898578</v>
       </c>
       <c r="E26">
-        <v>0.03736677743920372</v>
+        <v>-0.0007070027618590922</v>
       </c>
       <c r="F26">
-        <v>0.02041609062562512</v>
+        <v>0.04793502193872647</v>
       </c>
       <c r="G26">
-        <v>-0.02486969091099725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02099099059194609</v>
+      </c>
+      <c r="H26">
+        <v>0.03230385427931264</v>
+      </c>
+      <c r="I26">
+        <v>-0.006263800318939776</v>
+      </c>
+      <c r="J26">
+        <v>-0.0372111249024531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1168110649246737</v>
+        <v>0.07776742879710226</v>
       </c>
       <c r="C27">
-        <v>-0.03097269408577048</v>
+        <v>0.02660104209475438</v>
       </c>
       <c r="D27">
-        <v>-0.02235016640250101</v>
+        <v>-0.01159199650610042</v>
       </c>
       <c r="E27">
-        <v>0.09328809178017104</v>
+        <v>-0.03286073607342132</v>
       </c>
       <c r="F27">
-        <v>0.01360167270075067</v>
+        <v>0.06898857935508894</v>
       </c>
       <c r="G27">
-        <v>0.005761370295332132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01698593585373289</v>
+      </c>
+      <c r="H27">
+        <v>0.01305633554513301</v>
+      </c>
+      <c r="I27">
+        <v>0.02461928002786166</v>
+      </c>
+      <c r="J27">
+        <v>-0.04264709929376358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.00905055605227123</v>
+        <v>0.04104623452691816</v>
       </c>
       <c r="C28">
-        <v>0.244109228006556</v>
+        <v>-0.2237250693054954</v>
       </c>
       <c r="D28">
-        <v>0.02416573207523469</v>
+        <v>0.07723650960498998</v>
       </c>
       <c r="E28">
-        <v>0.04477315266010999</v>
+        <v>0.04293305183266478</v>
       </c>
       <c r="F28">
-        <v>0.03488392111696637</v>
+        <v>0.05686136128320463</v>
       </c>
       <c r="G28">
-        <v>-0.01038150473621746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02486445436253442</v>
+      </c>
+      <c r="H28">
+        <v>-0.003768384975185739</v>
+      </c>
+      <c r="I28">
+        <v>0.1563166076643565</v>
+      </c>
+      <c r="J28">
+        <v>-0.001664739745611142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0253116553476192</v>
+        <v>0.02232047425455274</v>
       </c>
       <c r="C29">
-        <v>-0.02279503833700407</v>
+        <v>0.0162219395365861</v>
       </c>
       <c r="D29">
-        <v>-0.02990686736184128</v>
+        <v>-0.01544336821850891</v>
       </c>
       <c r="E29">
-        <v>0.02977674329522804</v>
+        <v>-0.02591043444767466</v>
       </c>
       <c r="F29">
-        <v>0.01358183436297892</v>
+        <v>0.03593144158096048</v>
       </c>
       <c r="G29">
-        <v>-0.02396483749473683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02936105889613915</v>
+      </c>
+      <c r="H29">
+        <v>0.04886461820288948</v>
+      </c>
+      <c r="I29">
+        <v>0.002821439028847996</v>
+      </c>
+      <c r="J29">
+        <v>-0.008875444281067377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1151386201793215</v>
+        <v>0.09142236538081917</v>
       </c>
       <c r="C30">
-        <v>-0.01725789301640263</v>
+        <v>0.0557335654441735</v>
       </c>
       <c r="D30">
-        <v>-0.02418598440680245</v>
+        <v>0.02300210216975197</v>
       </c>
       <c r="E30">
-        <v>0.1097218410418244</v>
+        <v>-0.02987533371696945</v>
       </c>
       <c r="F30">
-        <v>0.001553057775149368</v>
+        <v>0.1032795931111218</v>
       </c>
       <c r="G30">
-        <v>-0.03861483018128252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01458222189027335</v>
+      </c>
+      <c r="H30">
+        <v>0.02113648219058493</v>
+      </c>
+      <c r="I30">
+        <v>-0.01226765444258108</v>
+      </c>
+      <c r="J30">
+        <v>-0.03229075864498897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06445708623256098</v>
+        <v>0.06282885137908285</v>
       </c>
       <c r="C31">
-        <v>-0.01899638395947806</v>
+        <v>0.02398206390285394</v>
       </c>
       <c r="D31">
-        <v>-0.01608905463442226</v>
+        <v>0.005210006369123498</v>
       </c>
       <c r="E31">
-        <v>-0.01886958262116631</v>
+        <v>-0.02173790032832949</v>
       </c>
       <c r="F31">
-        <v>0.00789966876080693</v>
+        <v>0.00326853185727032</v>
       </c>
       <c r="G31">
-        <v>-0.05943365242893622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04045232857955012</v>
+      </c>
+      <c r="H31">
+        <v>0.03030779809504085</v>
+      </c>
+      <c r="I31">
+        <v>0.01326524642539756</v>
+      </c>
+      <c r="J31">
+        <v>-0.01445650422594456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06747416904361368</v>
+        <v>0.04480830275453516</v>
       </c>
       <c r="C32">
-        <v>-0.03310280413103349</v>
+        <v>0.04220507444159872</v>
       </c>
       <c r="D32">
-        <v>-0.009709471527081162</v>
+        <v>-0.0289363604006413</v>
       </c>
       <c r="E32">
-        <v>0.1059706471382999</v>
+        <v>-0.02768908481725246</v>
       </c>
       <c r="F32">
-        <v>-0.005762192582218005</v>
+        <v>0.0877166209511423</v>
       </c>
       <c r="G32">
-        <v>-0.02916325140077481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01262850931923293</v>
+      </c>
+      <c r="H32">
+        <v>0.03945533953699347</v>
+      </c>
+      <c r="I32">
+        <v>0.02351384818847738</v>
+      </c>
+      <c r="J32">
+        <v>-0.04839101531122189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.07027638649449804</v>
+        <v>0.05856177792241779</v>
       </c>
       <c r="C33">
-        <v>-0.0405607484788031</v>
+        <v>0.05381349506357753</v>
       </c>
       <c r="D33">
-        <v>-0.007764217157782109</v>
+        <v>0.00292567510239876</v>
       </c>
       <c r="E33">
-        <v>0.0708947109799575</v>
+        <v>-0.009992132049030735</v>
       </c>
       <c r="F33">
-        <v>0.04971092023594737</v>
+        <v>0.07825122512523394</v>
       </c>
       <c r="G33">
-        <v>-0.01662964866131435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03612350008590125</v>
+      </c>
+      <c r="H33">
+        <v>0.03727449518638895</v>
+      </c>
+      <c r="I33">
+        <v>-0.01176918266133789</v>
+      </c>
+      <c r="J33">
+        <v>-0.05278008345456123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04915522811935757</v>
+        <v>0.04565856762769788</v>
       </c>
       <c r="C34">
-        <v>-0.02009047450508432</v>
+        <v>0.02805398856687537</v>
       </c>
       <c r="D34">
-        <v>-0.00127053379207367</v>
+        <v>-0.01248910844237131</v>
       </c>
       <c r="E34">
-        <v>0.02785939184013181</v>
+        <v>-0.01480572904215867</v>
       </c>
       <c r="F34">
-        <v>-0.006882164116762771</v>
+        <v>0.0317265567614623</v>
       </c>
       <c r="G34">
-        <v>-0.006551035192813928</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0002124973372102676</v>
+      </c>
+      <c r="H34">
+        <v>0.01147287708766727</v>
+      </c>
+      <c r="I34">
+        <v>-0.006887755643518966</v>
+      </c>
+      <c r="J34">
+        <v>-0.03448773331318138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01455065636960117</v>
+        <v>0.01618922838443028</v>
       </c>
       <c r="C36">
-        <v>0.00389513336449418</v>
+        <v>0.0001138314497480989</v>
       </c>
       <c r="D36">
-        <v>-0.007270824313140778</v>
+        <v>-0.004521990726257122</v>
       </c>
       <c r="E36">
-        <v>0.02233643332046131</v>
+        <v>-0.009493536661392864</v>
       </c>
       <c r="F36">
-        <v>0.00784694337370369</v>
+        <v>0.02832839560347799</v>
       </c>
       <c r="G36">
-        <v>-0.0204196117832323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02355505183583417</v>
+      </c>
+      <c r="H36">
+        <v>0.02745505999572035</v>
+      </c>
+      <c r="I36">
+        <v>-0.003701659726956721</v>
+      </c>
+      <c r="J36">
+        <v>-0.003252393620421837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05374777301369744</v>
+        <v>0.03636200561775195</v>
       </c>
       <c r="C38">
-        <v>-0.017292309206285</v>
+        <v>0.01341037747052469</v>
       </c>
       <c r="D38">
-        <v>-0.02801774022163313</v>
+        <v>-0.006761030960083839</v>
       </c>
       <c r="E38">
-        <v>0.02468990825395155</v>
+        <v>-0.01282860472977496</v>
       </c>
       <c r="F38">
-        <v>0.004003664977796597</v>
+        <v>0.04965588590021131</v>
       </c>
       <c r="G38">
-        <v>0.0199274084553016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02803967318432008</v>
+      </c>
+      <c r="H38">
+        <v>0.01324175387745592</v>
+      </c>
+      <c r="I38">
+        <v>-0.0141768274139467</v>
+      </c>
+      <c r="J38">
+        <v>-0.001919508090260618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07536906706099378</v>
+        <v>0.05780209327681714</v>
       </c>
       <c r="C39">
-        <v>-0.01615027495339492</v>
+        <v>0.04020665729967569</v>
       </c>
       <c r="D39">
-        <v>-0.003356457157910317</v>
+        <v>-0.006842754222699886</v>
       </c>
       <c r="E39">
-        <v>0.04028086724954957</v>
+        <v>-0.01652042886612803</v>
       </c>
       <c r="F39">
-        <v>0.01665022142222508</v>
+        <v>0.05516615774532243</v>
       </c>
       <c r="G39">
-        <v>-0.009468524886515924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01681491109102986</v>
+      </c>
+      <c r="H39">
+        <v>0.0008981047484139639</v>
+      </c>
+      <c r="I39">
+        <v>-0.02949941864311437</v>
+      </c>
+      <c r="J39">
+        <v>-0.0475292435647249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07919539830274872</v>
+        <v>0.05735126258450485</v>
       </c>
       <c r="C40">
-        <v>-0.03940383666458017</v>
+        <v>0.04479668590231016</v>
       </c>
       <c r="D40">
-        <v>-0.007352812996539384</v>
+        <v>0.008203463534876181</v>
       </c>
       <c r="E40">
-        <v>0.1035810531959672</v>
+        <v>-0.02255837791356935</v>
       </c>
       <c r="F40">
-        <v>0.03191289771406574</v>
+        <v>0.09559321346893551</v>
       </c>
       <c r="G40">
-        <v>0.03731435422182935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02249373006771377</v>
+      </c>
+      <c r="H40">
+        <v>0.05328063919136432</v>
+      </c>
+      <c r="I40">
+        <v>0.01467646188402672</v>
+      </c>
+      <c r="J40">
+        <v>-0.1171249909405491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003375273684485632</v>
+        <v>0.00365902805141233</v>
       </c>
       <c r="C41">
-        <v>-0.01756350486667498</v>
+        <v>0.01153999900526803</v>
       </c>
       <c r="D41">
-        <v>-0.02497692141526203</v>
+        <v>-0.004525302915494806</v>
       </c>
       <c r="E41">
-        <v>0.01186555546520303</v>
+        <v>-0.007969738751789551</v>
       </c>
       <c r="F41">
-        <v>0.0308418070132936</v>
+        <v>0.01476385671175998</v>
       </c>
       <c r="G41">
-        <v>-0.02947956651734444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03635587055811599</v>
+      </c>
+      <c r="H41">
+        <v>0.03152184766704267</v>
+      </c>
+      <c r="I41">
+        <v>0.0223279060560835</v>
+      </c>
+      <c r="J41">
+        <v>-0.01122452089363978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1464481444523072</v>
+        <v>0.2195199760839439</v>
       </c>
       <c r="C42">
-        <v>-0.1888575109382339</v>
+        <v>0.2128822440579897</v>
       </c>
       <c r="D42">
-        <v>0.9336545593449224</v>
+        <v>-0.01341788705258471</v>
       </c>
       <c r="E42">
-        <v>-0.09348103739049834</v>
+        <v>0.9247690875508841</v>
       </c>
       <c r="F42">
-        <v>-0.03525162483476099</v>
+        <v>-0.1486869604958471</v>
       </c>
       <c r="G42">
-        <v>-0.08973873607471393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003867161578937672</v>
+      </c>
+      <c r="H42">
+        <v>-0.0006826576159536252</v>
+      </c>
+      <c r="I42">
+        <v>0.04611488440030417</v>
+      </c>
+      <c r="J42">
+        <v>-0.02979948034800543</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.00412823370871022</v>
+        <v>0.006091855116267286</v>
       </c>
       <c r="C43">
-        <v>-0.01934303389424746</v>
+        <v>0.01471099674581263</v>
       </c>
       <c r="D43">
-        <v>-0.01617784224144013</v>
+        <v>-0.002639462743565493</v>
       </c>
       <c r="E43">
-        <v>0.03581035471075197</v>
+        <v>-0.008380749908139157</v>
       </c>
       <c r="F43">
-        <v>0.009985791707785706</v>
+        <v>0.02924585990903548</v>
       </c>
       <c r="G43">
-        <v>-0.02228600255866048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02075909650709928</v>
+      </c>
+      <c r="H43">
+        <v>0.03140255862871592</v>
+      </c>
+      <c r="I43">
+        <v>0.01284458636514492</v>
+      </c>
+      <c r="J43">
+        <v>-0.01994486148540395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04233380040299967</v>
+        <v>0.02921220138244308</v>
       </c>
       <c r="C44">
-        <v>-0.04830794621457262</v>
+        <v>0.04026297249312325</v>
       </c>
       <c r="D44">
-        <v>-0.01283810590067687</v>
+        <v>-0.01508120782430695</v>
       </c>
       <c r="E44">
-        <v>0.1188789996381044</v>
+        <v>-0.009988553404885189</v>
       </c>
       <c r="F44">
-        <v>0.0945387453652172</v>
+        <v>0.1211977355888904</v>
       </c>
       <c r="G44">
-        <v>-0.02937326771133294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06078002388380786</v>
+      </c>
+      <c r="H44">
+        <v>0.1034972216335032</v>
+      </c>
+      <c r="I44">
+        <v>0.01935240100219233</v>
+      </c>
+      <c r="J44">
+        <v>-0.03022206737535886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02999870497076254</v>
+        <v>0.02556714168894645</v>
       </c>
       <c r="C46">
-        <v>-0.02282814670691294</v>
+        <v>0.03443373746496586</v>
       </c>
       <c r="D46">
-        <v>-0.03008904658016773</v>
+        <v>-0.008813889622019018</v>
       </c>
       <c r="E46">
-        <v>0.02735219094949472</v>
+        <v>-0.02770433947794235</v>
       </c>
       <c r="F46">
-        <v>0.02401121662649423</v>
+        <v>0.04817782898641584</v>
       </c>
       <c r="G46">
-        <v>-0.03122814768670244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02619157280279177</v>
+      </c>
+      <c r="H46">
+        <v>0.05074199384953468</v>
+      </c>
+      <c r="I46">
+        <v>0.0009790923554067123</v>
+      </c>
+      <c r="J46">
+        <v>-0.01978587383619093</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08933284469865121</v>
+        <v>0.09145318329237127</v>
       </c>
       <c r="C47">
-        <v>-0.01388340761066935</v>
+        <v>0.01787177025933152</v>
       </c>
       <c r="D47">
-        <v>-0.01644322480669409</v>
+        <v>0.001926661624972415</v>
       </c>
       <c r="E47">
-        <v>-0.02236014932426877</v>
+        <v>-0.02486751515130806</v>
       </c>
       <c r="F47">
-        <v>0.006179856428289257</v>
+        <v>-0.01025490254637987</v>
       </c>
       <c r="G47">
-        <v>-0.029640718486313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04156264836482646</v>
+      </c>
+      <c r="H47">
+        <v>0.05378857676390045</v>
+      </c>
+      <c r="I47">
+        <v>0.01994440677723875</v>
+      </c>
+      <c r="J47">
+        <v>-0.02598730885918962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01984468230978163</v>
+        <v>0.0190094299120334</v>
       </c>
       <c r="C48">
-        <v>-0.02207635242973353</v>
+        <v>0.01827985080429592</v>
       </c>
       <c r="D48">
-        <v>-0.01394515746394409</v>
+        <v>-0.007359689812700117</v>
       </c>
       <c r="E48">
-        <v>0.02821770604632007</v>
+        <v>-0.01294232728161557</v>
       </c>
       <c r="F48">
-        <v>0.01036094766690065</v>
+        <v>0.03096362931399198</v>
       </c>
       <c r="G48">
-        <v>-0.01011003707270215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01528697718455255</v>
+      </c>
+      <c r="H48">
+        <v>0.02088609600752082</v>
+      </c>
+      <c r="I48">
+        <v>0.01187000584008122</v>
+      </c>
+      <c r="J48">
+        <v>-0.0139211072168853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09122414273430136</v>
+        <v>0.09014754000566529</v>
       </c>
       <c r="C50">
-        <v>-0.04422252344980702</v>
+        <v>0.03439433503476692</v>
       </c>
       <c r="D50">
-        <v>-0.02717395133744898</v>
+        <v>-0.02092625513969722</v>
       </c>
       <c r="E50">
-        <v>-0.0161017339848187</v>
+        <v>-0.02429358482332042</v>
       </c>
       <c r="F50">
-        <v>-0.007444264748488192</v>
+        <v>-0.004384164842543933</v>
       </c>
       <c r="G50">
-        <v>-0.04253949244092872</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0001014710102633027</v>
+      </c>
+      <c r="H50">
+        <v>0.0378205858290328</v>
+      </c>
+      <c r="I50">
+        <v>-0.004658526872619165</v>
+      </c>
+      <c r="J50">
+        <v>-0.01037251601035131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.05789481782611421</v>
+        <v>0.03961946593299228</v>
       </c>
       <c r="C51">
-        <v>0.02318982112562652</v>
+        <v>-0.002023922453095119</v>
       </c>
       <c r="D51">
-        <v>0.006503926944330614</v>
+        <v>0.01464068748641589</v>
       </c>
       <c r="E51">
-        <v>0.07401602959159385</v>
+        <v>-0.00780270010476121</v>
       </c>
       <c r="F51">
-        <v>0.05010268061923781</v>
+        <v>0.09940067202452321</v>
       </c>
       <c r="G51">
-        <v>-0.07232752185431184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05054200445658508</v>
+      </c>
+      <c r="H51">
+        <v>0.05026260263624337</v>
+      </c>
+      <c r="I51">
+        <v>0.01702330828279207</v>
+      </c>
+      <c r="J51">
+        <v>-0.04460018883401963</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1419333838879238</v>
+        <v>0.1275245859028891</v>
       </c>
       <c r="C53">
-        <v>-0.01446496848909682</v>
+        <v>0.03575069343053605</v>
       </c>
       <c r="D53">
-        <v>-0.04872396566307821</v>
+        <v>-0.002253436180035535</v>
       </c>
       <c r="E53">
-        <v>-0.05359403661237085</v>
+        <v>-0.05037945065864238</v>
       </c>
       <c r="F53">
-        <v>-0.009395718503372669</v>
+        <v>-0.04044478399075733</v>
       </c>
       <c r="G53">
-        <v>-0.04339197807506844</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02270967041349844</v>
+      </c>
+      <c r="H53">
+        <v>-0.002183677876963065</v>
+      </c>
+      <c r="I53">
+        <v>0.03574086814992172</v>
+      </c>
+      <c r="J53">
+        <v>-0.0370698890977391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02697216413530715</v>
+        <v>0.02542924377065171</v>
       </c>
       <c r="C54">
-        <v>-0.004259791574445065</v>
+        <v>0.002612344124862636</v>
       </c>
       <c r="D54">
-        <v>-0.02525729135835487</v>
+        <v>-0.005790947418954441</v>
       </c>
       <c r="E54">
-        <v>0.03021510322287222</v>
+        <v>-0.02653091763808209</v>
       </c>
       <c r="F54">
-        <v>0.05014580332030635</v>
+        <v>0.03719105501105474</v>
       </c>
       <c r="G54">
-        <v>-0.01795205345009065</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05124508321962929</v>
+      </c>
+      <c r="H54">
+        <v>0.04087557916392886</v>
+      </c>
+      <c r="I54">
+        <v>0.02740598911049638</v>
+      </c>
+      <c r="J54">
+        <v>0.004039274985726891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09963555242045384</v>
+        <v>0.1006589085319211</v>
       </c>
       <c r="C55">
-        <v>0.0003911129172714887</v>
+        <v>0.01836583312966487</v>
       </c>
       <c r="D55">
-        <v>-0.03808390286492302</v>
+        <v>-0.01570968101038431</v>
       </c>
       <c r="E55">
-        <v>-0.007750379851263969</v>
+        <v>-0.03223084626547186</v>
       </c>
       <c r="F55">
-        <v>-0.03427496664762066</v>
+        <v>-0.02740040323106749</v>
       </c>
       <c r="G55">
-        <v>0.003568940538284564</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005953108894025237</v>
+      </c>
+      <c r="H55">
+        <v>0.01159574691732255</v>
+      </c>
+      <c r="I55">
+        <v>0.01895222388253645</v>
+      </c>
+      <c r="J55">
+        <v>-0.03137293252302819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1748805986965519</v>
+        <v>0.1682412687064518</v>
       </c>
       <c r="C56">
-        <v>0.00594540046422455</v>
+        <v>0.01439428166147382</v>
       </c>
       <c r="D56">
-        <v>-0.09056075768013411</v>
+        <v>-0.002249138780232445</v>
       </c>
       <c r="E56">
-        <v>-0.09839206414260702</v>
+        <v>-0.08544211420593593</v>
       </c>
       <c r="F56">
-        <v>-0.08658849459908151</v>
+        <v>-0.08448222497458284</v>
       </c>
       <c r="G56">
-        <v>-0.01237599482389524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02740722343915659</v>
+      </c>
+      <c r="H56">
+        <v>-0.04402567840097207</v>
+      </c>
+      <c r="I56">
+        <v>0.02867911757347148</v>
+      </c>
+      <c r="J56">
+        <v>-0.04193733492842861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09030763908182217</v>
+        <v>0.06738412477088883</v>
       </c>
       <c r="C57">
-        <v>-0.03108726290852855</v>
+        <v>0.03713690669854098</v>
       </c>
       <c r="D57">
-        <v>-0.03115660475776294</v>
+        <v>0.007717537309912701</v>
       </c>
       <c r="E57">
-        <v>0.03426405769044344</v>
+        <v>-0.01054801958233459</v>
       </c>
       <c r="F57">
-        <v>0.03273678216579289</v>
+        <v>0.06332665141005431</v>
       </c>
       <c r="G57">
-        <v>-0.04483203987850941</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0265866635951095</v>
+      </c>
+      <c r="H57">
+        <v>0.02797164966821204</v>
+      </c>
+      <c r="I57">
+        <v>-0.01151198859934726</v>
+      </c>
+      <c r="J57">
+        <v>-0.03585026258834497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1852928063470883</v>
+        <v>0.2073608671146649</v>
       </c>
       <c r="C58">
-        <v>-0.03007874911726481</v>
+        <v>0.113991369981607</v>
       </c>
       <c r="D58">
-        <v>0.02068313067306634</v>
+        <v>0.0582833229108558</v>
       </c>
       <c r="E58">
-        <v>0.1181896059695364</v>
+        <v>0.009153768659901482</v>
       </c>
       <c r="F58">
-        <v>-0.07093691326035516</v>
+        <v>0.2331140030514099</v>
       </c>
       <c r="G58">
-        <v>-0.01365082343653019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1661326413936008</v>
+      </c>
+      <c r="H58">
+        <v>0.363971748189962</v>
+      </c>
+      <c r="I58">
+        <v>-0.1481668790758375</v>
+      </c>
+      <c r="J58">
+        <v>0.7639681695143866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01697501856838662</v>
+        <v>0.04097224302455492</v>
       </c>
       <c r="C59">
-        <v>0.1965146436329852</v>
+        <v>-0.1800162859454389</v>
       </c>
       <c r="D59">
-        <v>-0.007410882116692423</v>
+        <v>0.08133031038795262</v>
       </c>
       <c r="E59">
-        <v>0.05910255900229011</v>
+        <v>0.007374615443465445</v>
       </c>
       <c r="F59">
-        <v>0.02169270902672693</v>
+        <v>0.07173848489489631</v>
       </c>
       <c r="G59">
-        <v>-0.00706246182400359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002408530374693712</v>
+      </c>
+      <c r="H59">
+        <v>-0.02117098520228373</v>
+      </c>
+      <c r="I59">
+        <v>0.0638708415439958</v>
+      </c>
+      <c r="J59">
+        <v>0.009668794245887475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.193505658208853</v>
+        <v>0.1832207668068443</v>
       </c>
       <c r="C60">
-        <v>0.09294561514714281</v>
+        <v>-0.03268347226143966</v>
       </c>
       <c r="D60">
-        <v>-0.008029057184942996</v>
+        <v>0.06584812821802469</v>
       </c>
       <c r="E60">
-        <v>0.1806362833246113</v>
+        <v>-0.0104270187175596</v>
       </c>
       <c r="F60">
-        <v>0.06591517161090787</v>
+        <v>0.2104388370046023</v>
       </c>
       <c r="G60">
-        <v>-0.01628942290407634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06766090053605282</v>
+      </c>
+      <c r="H60">
+        <v>-0.2740812420883006</v>
+      </c>
+      <c r="I60">
+        <v>-0.1013490058207177</v>
+      </c>
+      <c r="J60">
+        <v>-0.02269459164211134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04730037495270396</v>
+        <v>0.0381761410790829</v>
       </c>
       <c r="C61">
-        <v>-0.007522928261812279</v>
+        <v>0.02380731828154509</v>
       </c>
       <c r="D61">
-        <v>-0.0002862233663431085</v>
+        <v>-0.008203426646888685</v>
       </c>
       <c r="E61">
-        <v>0.03672814216266117</v>
+        <v>-0.005245110377809265</v>
       </c>
       <c r="F61">
-        <v>0.007142742505979793</v>
+        <v>0.04021603601926359</v>
       </c>
       <c r="G61">
-        <v>-0.008367326374506137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.011051673935572</v>
+      </c>
+      <c r="H61">
+        <v>-0.002414811135870547</v>
+      </c>
+      <c r="I61">
+        <v>-0.03873575536519717</v>
+      </c>
+      <c r="J61">
+        <v>-0.02429333499728186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04564176261622793</v>
+        <v>0.03097197390671601</v>
       </c>
       <c r="C63">
-        <v>-0.007945719333176489</v>
+        <v>0.01802632800621476</v>
       </c>
       <c r="D63">
-        <v>-0.01891464976010575</v>
+        <v>-0.003890708347267277</v>
       </c>
       <c r="E63">
-        <v>0.03626916860378056</v>
+        <v>-0.01342926402637732</v>
       </c>
       <c r="F63">
-        <v>0.009198018752861409</v>
+        <v>0.0301016324999227</v>
       </c>
       <c r="G63">
-        <v>-0.03495103370212795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01118755342534787</v>
+      </c>
+      <c r="H63">
+        <v>0.04909199839946198</v>
+      </c>
+      <c r="I63">
+        <v>0.03454814226579215</v>
+      </c>
+      <c r="J63">
+        <v>-0.03367810431098005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07893905521994767</v>
+        <v>0.05796285094635185</v>
       </c>
       <c r="C64">
-        <v>-0.05299293835996446</v>
+        <v>0.04080485860040133</v>
       </c>
       <c r="D64">
-        <v>-0.06215656177232234</v>
+        <v>-0.02777590075584347</v>
       </c>
       <c r="E64">
-        <v>0.05350316833126072</v>
+        <v>-0.04444564494690707</v>
       </c>
       <c r="F64">
-        <v>0.06149783755054725</v>
+        <v>0.04996679815055906</v>
       </c>
       <c r="G64">
-        <v>0.01299558959268119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05284407739201023</v>
+      </c>
+      <c r="H64">
+        <v>-0.007914468127697433</v>
+      </c>
+      <c r="I64">
+        <v>0.03293246537106096</v>
+      </c>
+      <c r="J64">
+        <v>-0.1050269690315932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01952566657107439</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.009001563174753204</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009834709364041145</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006339904645594116</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0001732861506566272</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0213608481100143</v>
+      </c>
+      <c r="H65">
+        <v>-0.004946105244586833</v>
+      </c>
+      <c r="I65">
+        <v>-0.01495845003674526</v>
+      </c>
+      <c r="J65">
+        <v>-0.002717917160639791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.091816581388283</v>
+        <v>0.0687685341890194</v>
       </c>
       <c r="C66">
-        <v>-0.02919693072703522</v>
+        <v>0.05370475651671842</v>
       </c>
       <c r="D66">
-        <v>-0.03623801850364539</v>
+        <v>-0.002407063063252742</v>
       </c>
       <c r="E66">
-        <v>0.0750596636345751</v>
+        <v>-0.04557695539243599</v>
       </c>
       <c r="F66">
-        <v>0.04199315963246463</v>
+        <v>0.0697142579672573</v>
       </c>
       <c r="G66">
-        <v>-0.01938815415683617</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01550525657452073</v>
+      </c>
+      <c r="H66">
+        <v>0.0005758886791352287</v>
+      </c>
+      <c r="I66">
+        <v>-0.03496810498322051</v>
+      </c>
+      <c r="J66">
+        <v>-0.07490462510070167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06084087287928708</v>
+        <v>0.04741999956680099</v>
       </c>
       <c r="C67">
-        <v>0.009624059231853247</v>
+        <v>-0.002915113211896834</v>
       </c>
       <c r="D67">
-        <v>-0.01553655191022265</v>
+        <v>0.003669625387154405</v>
       </c>
       <c r="E67">
-        <v>0.0189259190722296</v>
+        <v>-0.009798315269702604</v>
       </c>
       <c r="F67">
-        <v>0.006674851888272718</v>
+        <v>0.03813977613974691</v>
       </c>
       <c r="G67">
-        <v>0.02902884744500241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03486954846425871</v>
+      </c>
+      <c r="H67">
+        <v>-0.007460150375179964</v>
+      </c>
+      <c r="I67">
+        <v>-0.04028553055945035</v>
+      </c>
+      <c r="J67">
+        <v>-0.01062415690161794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02351737919114673</v>
+        <v>0.04992180776105726</v>
       </c>
       <c r="C68">
-        <v>0.2435792360125027</v>
+        <v>-0.2169422160884177</v>
       </c>
       <c r="D68">
-        <v>0.01309056710828809</v>
+        <v>0.09233398297437856</v>
       </c>
       <c r="E68">
-        <v>0.04324691500765986</v>
+        <v>0.02120401157935638</v>
       </c>
       <c r="F68">
-        <v>0.01758534611177818</v>
+        <v>0.05496959554395157</v>
       </c>
       <c r="G68">
-        <v>-0.03103984153803755</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.003220417942632164</v>
+      </c>
+      <c r="H68">
+        <v>-0.01743651944543316</v>
+      </c>
+      <c r="I68">
+        <v>0.1643326413906208</v>
+      </c>
+      <c r="J68">
+        <v>0.06710355536239376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07161150494451157</v>
+        <v>0.07216537525774069</v>
       </c>
       <c r="C69">
-        <v>-0.01730022140644282</v>
+        <v>0.02183804288920489</v>
       </c>
       <c r="D69">
-        <v>-0.02642932828532659</v>
+        <v>0.0005004255922047859</v>
       </c>
       <c r="E69">
-        <v>-0.02250097654180672</v>
+        <v>-0.03151564277693088</v>
       </c>
       <c r="F69">
-        <v>-0.003586246745370276</v>
+        <v>-0.001223325943933192</v>
       </c>
       <c r="G69">
-        <v>-0.03477814256748478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02641155444656303</v>
+      </c>
+      <c r="H69">
+        <v>0.02548497521037981</v>
+      </c>
+      <c r="I69">
+        <v>-0.0029991619415531</v>
+      </c>
+      <c r="J69">
+        <v>-0.03004751903062838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01740588709275306</v>
+        <v>0.05065252539675726</v>
       </c>
       <c r="C71">
-        <v>0.2794377239706779</v>
+        <v>-0.2353148530183552</v>
       </c>
       <c r="D71">
-        <v>0.01814981883129616</v>
+        <v>0.105139715451932</v>
       </c>
       <c r="E71">
-        <v>0.07632194149913803</v>
+        <v>0.04418945146066984</v>
       </c>
       <c r="F71">
-        <v>0.02561792178728536</v>
+        <v>0.07840840842065357</v>
       </c>
       <c r="G71">
-        <v>-0.04328763166292556</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01400805821274417</v>
+      </c>
+      <c r="H71">
+        <v>-0.02602237787687987</v>
+      </c>
+      <c r="I71">
+        <v>0.1317449948046583</v>
+      </c>
+      <c r="J71">
+        <v>0.02973541103263863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1184071092373497</v>
+        <v>0.124900749479059</v>
       </c>
       <c r="C72">
-        <v>0.000293394420194846</v>
+        <v>0.03018452904408377</v>
       </c>
       <c r="D72">
-        <v>-0.04999002437805322</v>
+        <v>0.0002549066547113558</v>
       </c>
       <c r="E72">
-        <v>0.09365764075371992</v>
+        <v>-0.06227273987499413</v>
       </c>
       <c r="F72">
-        <v>-0.008738097596121838</v>
+        <v>0.08320210086433359</v>
       </c>
       <c r="G72">
-        <v>0.01452052617954089</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03958639546447012</v>
+      </c>
+      <c r="H72">
+        <v>-0.01768691911049912</v>
+      </c>
+      <c r="I72">
+        <v>-0.06838766115158681</v>
+      </c>
+      <c r="J72">
+        <v>0.08935264192936343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.298962455063535</v>
+        <v>0.2685181271542496</v>
       </c>
       <c r="C73">
-        <v>0.1631096064940196</v>
+        <v>-0.05065586713527091</v>
       </c>
       <c r="D73">
-        <v>0.04001856603029213</v>
+        <v>0.1172503286566876</v>
       </c>
       <c r="E73">
-        <v>0.3192322414055548</v>
+        <v>0.0331951546312769</v>
       </c>
       <c r="F73">
-        <v>0.06240419239837142</v>
+        <v>0.3122066201197414</v>
       </c>
       <c r="G73">
-        <v>0.007413044609851541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1704699556191547</v>
+      </c>
+      <c r="H73">
+        <v>-0.4694585647768908</v>
+      </c>
+      <c r="I73">
+        <v>-0.2885920396841097</v>
+      </c>
+      <c r="J73">
+        <v>-0.03306980745209606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1597984682417269</v>
+        <v>0.1527374348894718</v>
       </c>
       <c r="C74">
-        <v>-0.002052826472727756</v>
+        <v>0.02651242448978813</v>
       </c>
       <c r="D74">
-        <v>-0.04463686751787573</v>
+        <v>0.008556117316327539</v>
       </c>
       <c r="E74">
-        <v>-0.02725317237114388</v>
+        <v>-0.04808603570468539</v>
       </c>
       <c r="F74">
-        <v>-0.06424876059409532</v>
+        <v>-0.05565700450793682</v>
       </c>
       <c r="G74">
-        <v>-0.06321344227280958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01877039264778759</v>
+      </c>
+      <c r="H74">
+        <v>-0.03048086079643019</v>
+      </c>
+      <c r="I74">
+        <v>0.01839097680635388</v>
+      </c>
+      <c r="J74">
+        <v>-0.09010044012731998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2262907522234326</v>
+        <v>0.242102228378048</v>
       </c>
       <c r="C75">
-        <v>-0.00411258372933874</v>
+        <v>0.02844250319988637</v>
       </c>
       <c r="D75">
-        <v>-0.06962104429145609</v>
+        <v>0.02475739731567124</v>
       </c>
       <c r="E75">
-        <v>-0.1195623664180221</v>
+        <v>-0.1051247930085691</v>
       </c>
       <c r="F75">
-        <v>-0.0333518540153151</v>
+        <v>-0.1427998504699549</v>
       </c>
       <c r="G75">
-        <v>-0.04860908584903919</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004111199564346298</v>
+      </c>
+      <c r="H75">
+        <v>-0.01875587522572918</v>
+      </c>
+      <c r="I75">
+        <v>0.08340250557320848</v>
+      </c>
+      <c r="J75">
+        <v>-0.0177352884381753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2426213153184585</v>
+        <v>0.2695618785049939</v>
       </c>
       <c r="C76">
-        <v>0.004850013817337111</v>
+        <v>0.01305933884307861</v>
       </c>
       <c r="D76">
-        <v>-0.117113144996212</v>
+        <v>-0.01141881272489328</v>
       </c>
       <c r="E76">
-        <v>-0.126187821430261</v>
+        <v>-0.1284085602487587</v>
       </c>
       <c r="F76">
-        <v>-0.0850602388838617</v>
+        <v>-0.185376885696922</v>
       </c>
       <c r="G76">
-        <v>-0.04136036583105287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05304542912791056</v>
+      </c>
+      <c r="H76">
+        <v>-0.04457571524610961</v>
+      </c>
+      <c r="I76">
+        <v>0.04359413669606091</v>
+      </c>
+      <c r="J76">
+        <v>-0.07066217612164062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1388839849009405</v>
+        <v>0.1271852764224705</v>
       </c>
       <c r="C77">
-        <v>-0.04346979950585449</v>
+        <v>0.06141014448362807</v>
       </c>
       <c r="D77">
-        <v>0.04055775889609603</v>
+        <v>-0.0100037475171624</v>
       </c>
       <c r="E77">
-        <v>0.1453036643325556</v>
+        <v>0.03461558465117504</v>
       </c>
       <c r="F77">
-        <v>0.0437479257700185</v>
+        <v>0.162145394793381</v>
       </c>
       <c r="G77">
-        <v>0.06668351735373662</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.005378296635016071</v>
+      </c>
+      <c r="H77">
+        <v>0.2326222605200699</v>
+      </c>
+      <c r="I77">
+        <v>0.2442836502813091</v>
+      </c>
+      <c r="J77">
+        <v>-0.1009439630421475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08867350543475684</v>
+        <v>0.07911516190703945</v>
       </c>
       <c r="C78">
-        <v>-0.049085062458085</v>
+        <v>0.07000403584426763</v>
       </c>
       <c r="D78">
-        <v>0.01358527770588508</v>
+        <v>-0.02858611050526829</v>
       </c>
       <c r="E78">
-        <v>0.04883845033805617</v>
+        <v>-0.007245065114228887</v>
       </c>
       <c r="F78">
-        <v>0.007818508468369824</v>
+        <v>0.07304940312248583</v>
       </c>
       <c r="G78">
-        <v>-0.008992886406942114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01105082541985794</v>
+      </c>
+      <c r="H78">
+        <v>0.0219540403846178</v>
+      </c>
+      <c r="I78">
+        <v>0.03036219262353357</v>
+      </c>
+      <c r="J78">
+        <v>-0.04812432895143369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07560899647094418</v>
+        <v>0.1501577726530464</v>
       </c>
       <c r="C80">
-        <v>-0.01986614506514781</v>
+        <v>-0.3563001964172609</v>
       </c>
       <c r="D80">
-        <v>0.03522293281303306</v>
+        <v>-0.9059930473586415</v>
       </c>
       <c r="E80">
-        <v>-0.01092629618044591</v>
+        <v>0.05117148601225011</v>
       </c>
       <c r="F80">
-        <v>-0.1476360418655651</v>
+        <v>0.04727426056842367</v>
       </c>
       <c r="G80">
-        <v>0.9246325432986325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04609289263579634</v>
+      </c>
+      <c r="H80">
+        <v>-0.05354709530052595</v>
+      </c>
+      <c r="I80">
+        <v>-0.02811317389879428</v>
+      </c>
+      <c r="J80">
+        <v>0.09834163830698679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1576524908150275</v>
+        <v>0.1793447415458657</v>
       </c>
       <c r="C81">
-        <v>0.003537964536749861</v>
+        <v>0.008039831193450074</v>
       </c>
       <c r="D81">
-        <v>-0.06490284553636645</v>
+        <v>0.00830974758370134</v>
       </c>
       <c r="E81">
-        <v>-0.1606324468128308</v>
+        <v>-0.08547992122778773</v>
       </c>
       <c r="F81">
-        <v>-0.1026318932858605</v>
+        <v>-0.1578874478476399</v>
       </c>
       <c r="G81">
-        <v>-0.05098748709457065</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03141620593942983</v>
+      </c>
+      <c r="H81">
+        <v>-0.01232452517274783</v>
+      </c>
+      <c r="I81">
+        <v>0.05670249292493541</v>
+      </c>
+      <c r="J81">
+        <v>-0.0008036551325925636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.0968912456560494</v>
+        <v>0.06898096743062475</v>
       </c>
       <c r="C83">
-        <v>-0.05590783807856514</v>
+        <v>0.05208421189574775</v>
       </c>
       <c r="D83">
-        <v>0.06876051003809566</v>
+        <v>-0.002135919878822138</v>
       </c>
       <c r="E83">
-        <v>0.004216558236615787</v>
+        <v>0.0370792561039946</v>
       </c>
       <c r="F83">
-        <v>0.05772105376927789</v>
+        <v>0.04594001585517558</v>
       </c>
       <c r="G83">
-        <v>-0.03120242197884961</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05937617085627341</v>
+      </c>
+      <c r="H83">
+        <v>0.02275154809399908</v>
+      </c>
+      <c r="I83">
+        <v>0.02005343972563301</v>
+      </c>
+      <c r="J83">
+        <v>-0.07810011993487279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2323792127989021</v>
+        <v>0.2529785594179498</v>
       </c>
       <c r="C85">
-        <v>-0.05423577662856847</v>
+        <v>0.05126314684042502</v>
       </c>
       <c r="D85">
-        <v>-0.06038458421723786</v>
+        <v>-0.006156066895121448</v>
       </c>
       <c r="E85">
-        <v>-0.1549450118721685</v>
+        <v>-0.09485810626372995</v>
       </c>
       <c r="F85">
-        <v>-0.07034291358024179</v>
+        <v>-0.1872848123786502</v>
       </c>
       <c r="G85">
-        <v>-0.01245232148197766</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.00847575191411082</v>
+      </c>
+      <c r="H85">
+        <v>0.02177931682551906</v>
+      </c>
+      <c r="I85">
+        <v>0.04825665765043306</v>
+      </c>
+      <c r="J85">
+        <v>-0.07377240907092043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.0447491289419417</v>
+        <v>0.02570881537256663</v>
       </c>
       <c r="C86">
-        <v>-0.05406637463721225</v>
+        <v>0.06098347705802518</v>
       </c>
       <c r="D86">
-        <v>-0.01825500336840351</v>
+        <v>-0.02181411114965244</v>
       </c>
       <c r="E86">
-        <v>0.06421310466850773</v>
+        <v>-0.01205624639194061</v>
       </c>
       <c r="F86">
-        <v>-0.004864414067702922</v>
+        <v>0.06808616408121405</v>
       </c>
       <c r="G86">
-        <v>-0.02051240896476072</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005610774747153516</v>
+      </c>
+      <c r="H86">
+        <v>0.06578610832104026</v>
+      </c>
+      <c r="I86">
+        <v>0.0226020843431371</v>
+      </c>
+      <c r="J86">
+        <v>-0.04032022369656306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03058877614126514</v>
+        <v>0.03436585481854106</v>
       </c>
       <c r="C87">
-        <v>0.04927977967149705</v>
+        <v>-0.007916114405533857</v>
       </c>
       <c r="D87">
-        <v>-0.002823528920923231</v>
+        <v>0.00597695754415058</v>
       </c>
       <c r="E87">
-        <v>0.0935306230432479</v>
+        <v>-0.003654488318269461</v>
       </c>
       <c r="F87">
-        <v>-0.02106787582418743</v>
+        <v>0.1003328462780309</v>
       </c>
       <c r="G87">
-        <v>-0.01897362290196024</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02600199233496124</v>
+      </c>
+      <c r="H87">
+        <v>0.01502973543575709</v>
+      </c>
+      <c r="I87">
+        <v>-0.01397267210355259</v>
+      </c>
+      <c r="J87">
+        <v>-0.02053890439032803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.0392703406048736</v>
+        <v>0.02758874679339545</v>
       </c>
       <c r="C88">
-        <v>-0.03447277477666987</v>
+        <v>0.01924514285258395</v>
       </c>
       <c r="D88">
-        <v>-0.004138528134497449</v>
+        <v>-0.01744273266714797</v>
       </c>
       <c r="E88">
-        <v>-0.007986726583774395</v>
+        <v>-0.01342479428181314</v>
       </c>
       <c r="F88">
-        <v>-0.0182400225240236</v>
+        <v>-0.01364993838429631</v>
       </c>
       <c r="G88">
-        <v>-0.007034858015293221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03395371346694678</v>
+      </c>
+      <c r="H88">
+        <v>0.03783332633042694</v>
+      </c>
+      <c r="I88">
+        <v>-0.02335726468263099</v>
+      </c>
+      <c r="J88">
+        <v>-0.02321516414449084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01946799784255859</v>
+        <v>0.07112630993059636</v>
       </c>
       <c r="C89">
-        <v>0.4141502370349668</v>
+        <v>-0.358295271057508</v>
       </c>
       <c r="D89">
-        <v>0.09303099471956713</v>
+        <v>0.1686369389810166</v>
       </c>
       <c r="E89">
-        <v>-0.002808819648934041</v>
+        <v>0.06473264006440257</v>
       </c>
       <c r="F89">
-        <v>0.02177942039047151</v>
+        <v>0.03383435634971821</v>
       </c>
       <c r="G89">
-        <v>-0.04027547874565827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03685392464075091</v>
+      </c>
+      <c r="H89">
+        <v>0.05193906022716979</v>
+      </c>
+      <c r="I89">
+        <v>0.2622495157742787</v>
+      </c>
+      <c r="J89">
+        <v>0.06217825757018367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01922249665233921</v>
+        <v>0.04995403102110652</v>
       </c>
       <c r="C90">
-        <v>0.3097070237573255</v>
+        <v>-0.307693358166163</v>
       </c>
       <c r="D90">
-        <v>0.0429581575538294</v>
+        <v>0.1266602552164148</v>
       </c>
       <c r="E90">
-        <v>0.04131855628445597</v>
+        <v>0.04898949263430751</v>
       </c>
       <c r="F90">
-        <v>0.03336108899424743</v>
+        <v>0.03561151290111153</v>
       </c>
       <c r="G90">
-        <v>-0.05537978230028336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0197079999910149</v>
+      </c>
+      <c r="H90">
+        <v>0.01096829940855499</v>
+      </c>
+      <c r="I90">
+        <v>0.2225712424540914</v>
+      </c>
+      <c r="J90">
+        <v>0.03901430026831895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2660785055029454</v>
+        <v>0.2936668473110328</v>
       </c>
       <c r="C91">
-        <v>-0.03777609586013098</v>
+        <v>0.04546292132915876</v>
       </c>
       <c r="D91">
-        <v>-0.0717559756590441</v>
+        <v>0.00629581569416688</v>
       </c>
       <c r="E91">
-        <v>-0.2733314776217196</v>
+        <v>-0.08734569026940311</v>
       </c>
       <c r="F91">
-        <v>-0.09873443107535973</v>
+        <v>-0.280794240949625</v>
       </c>
       <c r="G91">
-        <v>0.02520722182261123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02239453952682762</v>
+      </c>
+      <c r="H91">
+        <v>-0.01191282516681771</v>
+      </c>
+      <c r="I91">
+        <v>0.1024751418599256</v>
+      </c>
+      <c r="J91">
+        <v>-0.0467661731750899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0524416067275336</v>
+        <v>0.1127940156961412</v>
       </c>
       <c r="C92">
-        <v>0.4157524819277807</v>
+        <v>-0.4071740697946994</v>
       </c>
       <c r="D92">
-        <v>0.1496045755428544</v>
+        <v>0.1430109461066091</v>
       </c>
       <c r="E92">
-        <v>-0.1132854184515435</v>
+        <v>0.07998653001742816</v>
       </c>
       <c r="F92">
-        <v>-0.1011735656981809</v>
+        <v>-0.1278470326440238</v>
       </c>
       <c r="G92">
-        <v>0.1682817171090586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.07945028362019363</v>
+      </c>
+      <c r="H92">
+        <v>0.4428501953586932</v>
+      </c>
+      <c r="I92">
+        <v>-0.6823577193028965</v>
+      </c>
+      <c r="J92">
+        <v>-0.2854769135010463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.005547547210426386</v>
+        <v>0.05650049885570965</v>
       </c>
       <c r="C93">
-        <v>0.3763619521589427</v>
+        <v>-0.3679121866620674</v>
       </c>
       <c r="D93">
-        <v>0.07175611089109082</v>
+        <v>0.1665936611536774</v>
       </c>
       <c r="E93">
-        <v>-0.02815346493823546</v>
+        <v>0.0814039350601095</v>
       </c>
       <c r="F93">
-        <v>-0.0006818226297497702</v>
+        <v>0.002967712567690002</v>
       </c>
       <c r="G93">
-        <v>0.02538373442993663</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03315461156807024</v>
+      </c>
+      <c r="H93">
+        <v>-0.02094884869920306</v>
+      </c>
+      <c r="I93">
+        <v>0.1615499316479415</v>
+      </c>
+      <c r="J93">
+        <v>0.06275621594460735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2691984678822252</v>
+        <v>0.304610926774264</v>
       </c>
       <c r="C94">
-        <v>0.06050767887690075</v>
+        <v>0.0004480693571111043</v>
       </c>
       <c r="D94">
-        <v>-0.05233146689273987</v>
+        <v>0.04478776800883016</v>
       </c>
       <c r="E94">
-        <v>-0.3367731159245136</v>
+        <v>-0.1291239912901312</v>
       </c>
       <c r="F94">
-        <v>-0.4420565769561341</v>
+        <v>-0.3412821382885688</v>
       </c>
       <c r="G94">
-        <v>-0.1169217741350089</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2191492766672446</v>
+      </c>
+      <c r="H94">
+        <v>0.1180836533161652</v>
+      </c>
+      <c r="I94">
+        <v>0.03166466970524769</v>
+      </c>
+      <c r="J94">
+        <v>0.1512638397637608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1901950980314754</v>
+        <v>0.1327076856588028</v>
       </c>
       <c r="C95">
-        <v>0.01612886265426088</v>
+        <v>0.06650757917887318</v>
       </c>
       <c r="D95">
-        <v>-0.01253945984127516</v>
+        <v>0.08026145559155448</v>
       </c>
       <c r="E95">
-        <v>-0.4448219046049717</v>
+        <v>-0.03933845229108397</v>
       </c>
       <c r="F95">
-        <v>0.8033473586114346</v>
+        <v>-0.0828144360404573</v>
       </c>
       <c r="G95">
-        <v>0.1154702739396267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.89697829085018</v>
+      </c>
+      <c r="H95">
+        <v>-0.1608139197054204</v>
+      </c>
+      <c r="I95">
+        <v>-0.09234486321366238</v>
+      </c>
+      <c r="J95">
+        <v>0.2577936288127067</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2266650160102832</v>
+        <v>0.2066103371835045</v>
       </c>
       <c r="C98">
-        <v>0.1091028106203459</v>
+        <v>-0.03961982630247737</v>
       </c>
       <c r="D98">
-        <v>0.03180157771804516</v>
+        <v>0.08340074005620325</v>
       </c>
       <c r="E98">
-        <v>0.07767127765562494</v>
+        <v>0.03099470168777919</v>
       </c>
       <c r="F98">
-        <v>0.05283333464303246</v>
+        <v>0.1626540193154842</v>
       </c>
       <c r="G98">
-        <v>-0.05058093177929428</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07740242495684428</v>
+      </c>
+      <c r="H98">
+        <v>-0.3195872032606032</v>
+      </c>
+      <c r="I98">
+        <v>-0.1603537039085437</v>
+      </c>
+      <c r="J98">
+        <v>0.03751999775862935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02503348781320867</v>
+        <v>0.01604171593922132</v>
       </c>
       <c r="C101">
-        <v>-0.02316219341839122</v>
+        <v>0.02808425485475729</v>
       </c>
       <c r="D101">
-        <v>-0.03133303888822831</v>
+        <v>-0.01544881153884568</v>
       </c>
       <c r="E101">
-        <v>0.03036650698631487</v>
+        <v>-0.03299968731488149</v>
       </c>
       <c r="F101">
-        <v>0.01349730304001853</v>
+        <v>0.06548831192288065</v>
       </c>
       <c r="G101">
-        <v>-0.02399155628371948</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01554823273980687</v>
+      </c>
+      <c r="H101">
+        <v>0.1084264576781363</v>
+      </c>
+      <c r="I101">
+        <v>-0.04751513847067523</v>
+      </c>
+      <c r="J101">
+        <v>0.1116892974375771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1159833917840692</v>
+        <v>0.122584051917418</v>
       </c>
       <c r="C102">
-        <v>-0.02174731425058507</v>
+        <v>0.02149359183812499</v>
       </c>
       <c r="D102">
-        <v>-0.0437132316859865</v>
+        <v>-0.00847028860577146</v>
       </c>
       <c r="E102">
-        <v>-0.09021273715146708</v>
+        <v>-0.05606116728859934</v>
       </c>
       <c r="F102">
-        <v>-0.01093983694298848</v>
+        <v>-0.09984205531734225</v>
       </c>
       <c r="G102">
-        <v>0.004290020398216657</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01503390900036137</v>
+      </c>
+      <c r="H102">
+        <v>-0.01943497128880904</v>
+      </c>
+      <c r="I102">
+        <v>0.05343983739956563</v>
+      </c>
+      <c r="J102">
+        <v>-0.04429278175993104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01572022566846805</v>
+        <v>0.03117076236808774</v>
       </c>
       <c r="C103">
-        <v>-0.0007581770631498966</v>
+        <v>0.002817435017069009</v>
       </c>
       <c r="D103">
-        <v>-0.01326715484668083</v>
+        <v>-0.008947072306028373</v>
       </c>
       <c r="E103">
-        <v>-0.0297033545097693</v>
+        <v>-0.02044817821735905</v>
       </c>
       <c r="F103">
-        <v>-0.01314018132414164</v>
+        <v>-0.02794306456658595</v>
       </c>
       <c r="G103">
-        <v>-0.0127188424031114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01279281318548136</v>
+      </c>
+      <c r="H103">
+        <v>0.01548823283941786</v>
+      </c>
+      <c r="I103">
+        <v>0.02961374115137929</v>
+      </c>
+      <c r="J103">
+        <v>-0.005884785562936364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
